--- a/ESPN sports website/IPL/Chennai Super Kings/Mitchell Santner.xlsx
+++ b/ESPN sports website/IPL/Chennai Super Kings/Mitchell Santner.xlsx
@@ -480,31 +480,31 @@
         <v>Mitchell Santner</v>
       </c>
       <c r="C3" t="str">
+        <v>11</v>
+      </c>
+      <c r="D3" t="str">
         <v>9</v>
       </c>
-      <c r="D3" t="str">
-        <v>15</v>
-      </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>60.00</v>
+        <v>122.22</v>
       </c>
       <c r="H3" t="str">
-        <v>Punjab Kings</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J3" t="str">
-        <v>April 25, 2022</v>
+        <v>April 21, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Punjab Kings won by 11 runs</v>
+        <v>Super Kings won by 3 wickets</v>
       </c>
     </row>
     <row r="4">
@@ -550,31 +550,31 @@
         <v>Mitchell Santner</v>
       </c>
       <c r="C5" t="str">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="str">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E5" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>122.22</v>
+        <v>60.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Mumbai Indians</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I5" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J5" t="str">
-        <v>April 21, 2022</v>
+        <v>April 25, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Super Kings won by 3 wickets</v>
+        <v>Punjab Kings won by 11 runs</v>
       </c>
     </row>
   </sheetData>
